--- a/PlayTest/Playtest1/角色卡/老虎.xlsx
+++ b/PlayTest/Playtest1/角色卡/老虎.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitStuff\Tao\PlayTest\Playtest1\角色卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE26DD-273E-4F57-8B37-8D5DCA3966A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F02883-9CA4-4069-9E99-6B6AAC0B2813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,15 +291,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,24 +599,24 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <f>(E2/F2)</f>
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -628,10 +628,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>(E4/F4)%</f>
         <v>0.01</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -696,9 +696,9 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6">
         <f>10+IF(G7="重甲",0,E10)+H7+IF(H9&gt;0,G9,0)</f>
         <v>14</v>
@@ -919,12 +919,12 @@
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -932,104 +932,104 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -1037,8 +1037,8 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1048,8 +1048,8 @@
         <v>31</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1057,8 +1057,8 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1066,8 +1066,8 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1075,8 +1075,8 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1084,8 +1084,8 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1124,6 +1124,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G3:J3"/>
@@ -1138,23 +1153,8 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4">
